--- a/biology/Zoologie/Hypsugo/Hypsugo.xlsx
+++ b/biology/Zoologie/Hypsugo/Hypsugo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hypsugo contient de nombreuses chauves-souris appelées pipistrelles. Ils appartiennent à la famille des Vespertilionidae ou chauves-souris vesper dans l'ordre Chiroptera.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Hypsugo alaschanicus (Bobrinskii, 1926)
 Hypsugo anchietae (Seabra, 1900)
@@ -520,7 +534,7 @@
 Hypsugo ariel (Thomas, 1904)
 Hypsugo cadornae (Thomas, 1916)
 Hypsugo crassulus (Thomas, 1904)
-Hypsugo dolichodon[1]
+Hypsugo dolichodon
 Hypsugo eisentrauti (Hill, 1968)
 Hypsugo imbricatus (Horsfield, 1824)
 Hypsugo joffrei (Thomas, 1915)
@@ -559,9 +573,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Positionnement phylogénétique des Hypsugo[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Positionnement phylogénétique des Hypsugo :
 </t>
         </is>
       </c>
